--- a/medicine/Enfance/Prix_Tam-Tam/Prix_Tam-Tam.xlsx
+++ b/medicine/Enfance/Prix_Tam-Tam/Prix_Tam-Tam.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les prix Tam-Tam, disparus en 2014[1], sont créés en 1995[1] dans le cadre du Salon du livre et de la presse de Montreuil, en partenariat avec les revues J'aime lire (7-11 ans), DLire (9-13 ans) et Je bouquine (11-15 ans) du groupe Bayard presse, mais également du réseau de librairies Canal BD. Les enfants sont invités à élire leur BD ou leur roman préféré[2], par classe ou individuellement, parmi une sélection d'ouvrages choisis par des professionnels. Les sélections sont annoncées à la rentrée des classes et la date limite de vote est fixée à la mi-mars.
-En 2011, le Salon du livre et de la presse jeunesse en Seine-Saint-Denis crée les « Pépites du Salon », et en 2012[1], le Salon et la revue J’aime lire se recentrent sur un unique prix Tam-Tam « J'aime lire », qui récompense le meilleur roman jeunesse destinés aux lecteurs de 7 à 12 ans.
-La dernière édition a lieu en 2014[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les prix Tam-Tam, disparus en 2014, sont créés en 1995 dans le cadre du Salon du livre et de la presse de Montreuil, en partenariat avec les revues J'aime lire (7-11 ans), DLire (9-13 ans) et Je bouquine (11-15 ans) du groupe Bayard presse, mais également du réseau de librairies Canal BD. Les enfants sont invités à élire leur BD ou leur roman préféré, par classe ou individuellement, parmi une sélection d'ouvrages choisis par des professionnels. Les sélections sont annoncées à la rentrée des classes et la date limite de vote est fixée à la mi-mars.
+En 2011, le Salon du livre et de la presse jeunesse en Seine-Saint-Denis crée les « Pépites du Salon », et en 2012, le Salon et la revue J’aime lire se recentrent sur un unique prix Tam-Tam « J'aime lire », qui récompense le meilleur roman jeunesse destinés aux lecteurs de 7 à 12 ans.
+La dernière édition a lieu en 2014.
 Les éditions du Rouergue, Thierry Magnier, Gallimard et l'École des loisirs sont très souvent présents dans la sélection proposée.
 </t>
         </is>
@@ -516,67 +528,687 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Le prix Tam-Tam 2014
-Monsieur Kipu de David Walliams, illustré par Quentin Blake, traduit de l’anglais par Valérie Le Plouhinec (Éditions Albin Michel jeunesse)
-Le prix Tam-Tam 2013
-La folle semaine de Clémentine[3] de Sara Pennypacker et Marla Frazee (Éditions Rageot)
-Le prix Tam-tam 2012
-Lettres à plumes et à poils de Philippe Lechermeier et Delphine Perret (Éditions Thierry Magnier)
-Les prix Tam-tam 2011
-Dans la catégorie roman J’aime lire (7-11 ans) : Le Mont des Brumes, volume 1 (Les voyages de Théodore) de Susan Schade et Jon Buller (Éditions Bayard jeunesse)
-Dans la catégorie Dlire Manga (9-13 ans) : Une sacrée mamie[4] de Yoshichi Shimada et Saburo Ishikawa (Éditions Delcourt)
+          <t>Le prix Tam-Tam 2014</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monsieur Kipu de David Walliams, illustré par Quentin Blake, traduit de l’anglais par Valérie Le Plouhinec (Éditions Albin Michel jeunesse)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Prix_Tam-Tam</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_Tam-Tam</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Lauréats</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Le prix Tam-Tam 2013</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La folle semaine de Clémentine de Sara Pennypacker et Marla Frazee (Éditions Rageot)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Prix_Tam-Tam</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_Tam-Tam</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Lauréats</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Le prix Tam-tam 2012</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lettres à plumes et à poils de Philippe Lechermeier et Delphine Perret (Éditions Thierry Magnier)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Prix_Tam-Tam</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_Tam-Tam</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Lauréats</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Les prix Tam-tam 2011</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Dans la catégorie roman J’aime lire (7-11 ans) : Le Mont des Brumes, volume 1 (Les voyages de Théodore) de Susan Schade et Jon Buller (Éditions Bayard jeunesse)
+Dans la catégorie Dlire Manga (9-13 ans) : Une sacrée mamie de Yoshichi Shimada et Saburo Ishikawa (Éditions Delcourt)
 Dans la catégorie Dlire BD (9-13 ans) : 10 petits insectes de Davide Cali et Vincent Pianina (Éditions Sarbacane)
-Dans la catégorie roman Je bouquine (11-15 ans) : Le World Shaker de Richard Harland (Éditions Hélium)
-Les prix Tam-tam 2009-2010
-Dans la catégorie roman J’aime lire (7-11 ans) : Apolline et le chat masqué de Chris Riddell (Éditions Milan jeunesse)
+Dans la catégorie roman Je bouquine (11-15 ans) : Le World Shaker de Richard Harland (Éditions Hélium)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Prix_Tam-Tam</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_Tam-Tam</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Lauréats</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Les prix Tam-tam 2009-2010</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Dans la catégorie roman J’aime lire (7-11 ans) : Apolline et le chat masqué de Chris Riddell (Éditions Milan jeunesse)
 Dans la catégorie Dlire Manga (9-13 ans) : Fairy Tail de Hiro Mashima (Pika Édition)
 Dans la catégorie Dlire BD (9-13 ans) : La Fille du savant fou de Mathieu Sapin (Éditions Delcourt)
-Dans la catégorie roman Je bouquine (11-15 ans) : Le temps des miracles[5] d'Anne-Laure Bondoux (Éditions Bayard jeunesse)
-Les prix Tam-tam 2008
-Dans la catégorie roman J’aime lire (7-11 ans) : L'arche part à 8 heures d'Ulrich Hub (Éditions Alice jeunesse)
+Dans la catégorie roman Je bouquine (11-15 ans) : Le temps des miracles d'Anne-Laure Bondoux (Éditions Bayard jeunesse)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Prix_Tam-Tam</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_Tam-Tam</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Lauréats</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Les prix Tam-tam 2008</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Dans la catégorie roman J’aime lire (7-11 ans) : L'arche part à 8 heures d'Ulrich Hub (Éditions Alice jeunesse)
 Dans la catégorie Dlire Manga (9-13 ans) : Keroro de Mine Yoshizaki (Éditions Kana)
-Dans la catégorie Dlire BD (9-13 ans) : Ma Maman est en Amérique, elle a rencontré Buffalo Bill[6] de Jean Regnaud et Émile Bravo (Éditions Gallimard)
-Dans la catégorie roman Je bouquine (11-15 ans) : Méto d'Yves Grevet (Éditions Syros)
-Les prix Tam-tam 2007
-Dans la catégorie roman J’aime lire (7-11 ans) : La Glu de Mathis (Éditions Thierry Magnier)
+Dans la catégorie Dlire BD (9-13 ans) : Ma Maman est en Amérique, elle a rencontré Buffalo Bill de Jean Regnaud et Émile Bravo (Éditions Gallimard)
+Dans la catégorie roman Je bouquine (11-15 ans) : Méto d'Yves Grevet (Éditions Syros)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Prix_Tam-Tam</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_Tam-Tam</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Lauréats</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Les prix Tam-tam 2007</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Dans la catégorie roman J’aime lire (7-11 ans) : La Glu de Mathis (Éditions Thierry Magnier)
 Dans la catégorie Dlire Manga (9-13 ans) : Cross Game 1 de Mitsuru Adachi (Éditions Tonkam)
 Dans la catégorie Dlire BD (9-13 ans) : Nini Patalo 4 : L'important, c'est de gagner! de Lisa Mandel (Éditions Glénat)
-Dans la catégorie roman Je bouquine (11-15 ans) : Le baume du dragon de Silvana Gandolfi (Éditions du Panama)
-Les prix Tam-tam 2006
-Dans la catégorie roman J’aime lire (7-11 ans) : Kurt et le poisson[7] d'Erlend Loe (Éditions La Joie de lire)
-Dans la catégorie Je bouquine (11-15 ans) : Tobie Lolness de Timothée de Fombelle (Éditions Gallimard)
-Les prix Tam-tam 2005
-Dans la catégorie roman J’aime lire (7-11 ans) : Les chats volants d'Ursula K. Le Guin (Éditions Gallimard, coll. « Folio Cadet »)
-Dans la catégorie roman Je bouquine (11-15 ans) : Une bouteille dans la mer de Gaza de Valérie Zenatti (Éditions L'École des loisirs)
-Les prix Tam-tam 2004
-Dans la catégorie roman J’aime lire (7-11 ans) : Tu parles, Charles ! de Vincent Cuvellier (Éditions du Rouergue)
-Dans la catégorie roman Je bouquine (11-15 ans) : Vol, envol de Monika Feth (Éditions Thierry Magnier)
-Les prix Tam-tam 2003
-Dans la catégorie roman J’aime lire (7-11 ans) : Lulu Bouche-Cousue de Jacqueline Wilson (Éditions Gallimard)
-Dans la catégorie roman Je bouquine (11-15 ans) : Une île trop loin d'Annika Thor (Éditions Thierry Magnier)
-Les prix Tam-tam 2002
-Dans la catégorie roman J’aime lire (7-11 ans) : Marabout d'ficelle, texte de Sébastien Joanniez, illustrations de Régis Lejonc (Éditions du Rouergue)
-Dans la catégorie roman Je bouquine (11-15 ans) : Le Petit Cœur brisé de Moka (L'École des Loisirs)
-Les prix Tam-tam 2001
-Dans la catégorie roman J’aime lire (7-11 ans) : Avril et la Poison d’Henriette Brandford (Éditions Gallimard)
-Dans la catégorie roman Je bouquine (11-15 ans) : Le Royaume de Kensuké de Michael Morpurgo (Éditions Gallimard)
-Les prix Tam-tam 2000
-Dans la catégorie roman J’aime lire (7-11 ans) : Oreille Déchirée de Geoffrey Malone (Casterman)
-Dans la catégorie roman Je bouquine (11-15 ans) : Oh, boy ! de Marie-Aude Murail (L'École des Loisirs)
-Les prix Tam-tam 1999
-Dans la catégorie roman J’aime lire (7-11 ans) : Lola et le fantôme d'Ole Könnecke (L'École des Loisirs)
-Dans la catégorie roman Je bouquine (11-15 ans) : Harry Potter à l’école des sorciers de J. K. Rowling (Éditions Gallimard)
-Les prix Tam-tam 1998
-Dans la catégorie roman J’aime lire (7-11 ans) : Le Grand Méchant Balèze de Willi Fährmann (Hachette Jeunesse)
-Dans la catégorie roman Je bouquine (11-15 ans) : Les Secrets de Faith Green de Jean-François Chabas (Casterman)
-Les prix Tam-tam 1997
-Catégorie J'aime lire : Félix Têtedeveau de Anne-Marie Desplat-Duc, Gérard Franquin (Castor Poche - Flammarion)
-Catégorie Je Bouquine : Le Pianiste sans visage et La Fille de 3e B de Christian Grenier (Cascade - Rageot)
-Les prix Tam-tam 1996
-Catégorie J'aime lire : Verte de Marie Desplechin (Neuf - L’École des Loisirs)
-Catégorie Je Bouquine : L'Ordinatueur de Christian Grenier (Cascade Policier - Rageot)
-Les prix Tam-tam 1995
-Catégorie J'aime lire : Fous de foot de Fanny Joly, Christophe Besse (Roman Huit &amp; Plus - Casterman)
+Dans la catégorie roman Je bouquine (11-15 ans) : Le baume du dragon de Silvana Gandolfi (Éditions du Panama)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Prix_Tam-Tam</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_Tam-Tam</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Lauréats</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Les prix Tam-tam 2006</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Dans la catégorie roman J’aime lire (7-11 ans) : Kurt et le poisson d'Erlend Loe (Éditions La Joie de lire)
+Dans la catégorie Je bouquine (11-15 ans) : Tobie Lolness de Timothée de Fombelle (Éditions Gallimard)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Prix_Tam-Tam</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_Tam-Tam</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Lauréats</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Les prix Tam-tam 2005</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Dans la catégorie roman J’aime lire (7-11 ans) : Les chats volants d'Ursula K. Le Guin (Éditions Gallimard, coll. « Folio Cadet »)
+Dans la catégorie roman Je bouquine (11-15 ans) : Une bouteille dans la mer de Gaza de Valérie Zenatti (Éditions L'École des loisirs)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Prix_Tam-Tam</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_Tam-Tam</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Lauréats</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Les prix Tam-tam 2004</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Dans la catégorie roman J’aime lire (7-11 ans) : Tu parles, Charles ! de Vincent Cuvellier (Éditions du Rouergue)
+Dans la catégorie roman Je bouquine (11-15 ans) : Vol, envol de Monika Feth (Éditions Thierry Magnier)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Prix_Tam-Tam</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_Tam-Tam</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Lauréats</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Les prix Tam-tam 2003</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Dans la catégorie roman J’aime lire (7-11 ans) : Lulu Bouche-Cousue de Jacqueline Wilson (Éditions Gallimard)
+Dans la catégorie roman Je bouquine (11-15 ans) : Une île trop loin d'Annika Thor (Éditions Thierry Magnier)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Prix_Tam-Tam</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_Tam-Tam</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Lauréats</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Les prix Tam-tam 2002</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Dans la catégorie roman J’aime lire (7-11 ans) : Marabout d'ficelle, texte de Sébastien Joanniez, illustrations de Régis Lejonc (Éditions du Rouergue)
+Dans la catégorie roman Je bouquine (11-15 ans) : Le Petit Cœur brisé de Moka (L'École des Loisirs)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Prix_Tam-Tam</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_Tam-Tam</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Lauréats</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Les prix Tam-tam 2001</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Dans la catégorie roman J’aime lire (7-11 ans) : Avril et la Poison d’Henriette Brandford (Éditions Gallimard)
+Dans la catégorie roman Je bouquine (11-15 ans) : Le Royaume de Kensuké de Michael Morpurgo (Éditions Gallimard)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Prix_Tam-Tam</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_Tam-Tam</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Lauréats</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Les prix Tam-tam 2000</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Dans la catégorie roman J’aime lire (7-11 ans) : Oreille Déchirée de Geoffrey Malone (Casterman)
+Dans la catégorie roman Je bouquine (11-15 ans) : Oh, boy ! de Marie-Aude Murail (L'École des Loisirs)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Prix_Tam-Tam</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_Tam-Tam</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Lauréats</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Les prix Tam-tam 1999</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Dans la catégorie roman J’aime lire (7-11 ans) : Lola et le fantôme d'Ole Könnecke (L'École des Loisirs)
+Dans la catégorie roman Je bouquine (11-15 ans) : Harry Potter à l’école des sorciers de J. K. Rowling (Éditions Gallimard)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Prix_Tam-Tam</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_Tam-Tam</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Lauréats</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Les prix Tam-tam 1998</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Dans la catégorie roman J’aime lire (7-11 ans) : Le Grand Méchant Balèze de Willi Fährmann (Hachette Jeunesse)
+Dans la catégorie roman Je bouquine (11-15 ans) : Les Secrets de Faith Green de Jean-François Chabas (Casterman)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Prix_Tam-Tam</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_Tam-Tam</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Lauréats</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Les prix Tam-tam 1997</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Catégorie J'aime lire : Félix Têtedeveau de Anne-Marie Desplat-Duc, Gérard Franquin (Castor Poche - Flammarion)
+Catégorie Je Bouquine : Le Pianiste sans visage et La Fille de 3e B de Christian Grenier (Cascade - Rageot)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Prix_Tam-Tam</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_Tam-Tam</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Lauréats</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Les prix Tam-tam 1996</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Catégorie J'aime lire : Verte de Marie Desplechin (Neuf - L’École des Loisirs)
+Catégorie Je Bouquine : L'Ordinatueur de Christian Grenier (Cascade Policier - Rageot)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Prix_Tam-Tam</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_Tam-Tam</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Lauréats</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Les prix Tam-tam 1995</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Catégorie J'aime lire : Fous de foot de Fanny Joly, Christophe Besse (Roman Huit &amp; Plus - Casterman)
 Catégorie Je Bouquine : Les Oubliés de Vulcain de Danielle Martinigol (Le Livre de poche Jeunesse - Hachette)</t>
         </is>
       </c>
